--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>13.40891262743</v>
+        <v>5.615127084798</v>
       </c>
       <c r="R2">
-        <v>80.45347576457999</v>
+        <v>22.460508339192</v>
       </c>
       <c r="S2">
-        <v>0.01108557715828347</v>
+        <v>0.004511915972545557</v>
       </c>
       <c r="T2">
-        <v>0.008982065016584476</v>
+        <v>0.002536964105280624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
-        <v>530.9612852411467</v>
+        <v>55.258740789336</v>
       </c>
       <c r="R3">
-        <v>4778.65156717032</v>
+        <v>331.552444736016</v>
       </c>
       <c r="S3">
-        <v>0.4389626854277013</v>
+        <v>0.04440198617501621</v>
       </c>
       <c r="T3">
-        <v>0.533502855656906</v>
+        <v>0.03744958211144252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,75 +652,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>0.8281495356844444</v>
+        <v>26.586392124537</v>
       </c>
       <c r="R4">
-        <v>7.45334582116</v>
+        <v>106.345568498148</v>
       </c>
       <c r="S4">
-        <v>0.0006846577221814671</v>
+        <v>0.02136293007576217</v>
       </c>
       <c r="T4">
-        <v>0.000832113667191254</v>
+        <v>0.0120119672253673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,13 +732,13 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,42 +747,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>331.716664898495</v>
+        <v>53.95372842647333</v>
       </c>
       <c r="R5">
-        <v>1990.29998939097</v>
+        <v>323.7223705588399</v>
       </c>
       <c r="S5">
-        <v>0.2742407819033962</v>
+        <v>0.04335337123977982</v>
       </c>
       <c r="T5">
-        <v>0.2222030028824127</v>
+        <v>0.03656515791101078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,13 +794,13 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>23.78909776325222</v>
+        <v>530.9612852411467</v>
       </c>
       <c r="R6">
-        <v>214.10187986927</v>
+        <v>4778.651567170319</v>
       </c>
       <c r="S6">
-        <v>0.01966720837907539</v>
+        <v>0.4266426507369119</v>
       </c>
       <c r="T6">
-        <v>0.02390296984540456</v>
+        <v>0.5397592661070745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J7">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,184 +871,184 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>0.116809821676</v>
+        <v>255.4590410625766</v>
       </c>
       <c r="R7">
-        <v>0.7008589300559999</v>
+        <v>1532.75424637546</v>
       </c>
       <c r="S7">
-        <v>9.65704175285402E-05</v>
+        <v>0.2052686805294052</v>
       </c>
       <c r="T7">
-        <v>7.824597281088874E-05</v>
+        <v>0.1731279829711496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>4.625393182069333</v>
+        <v>1.231169462952</v>
       </c>
       <c r="R8">
-        <v>41.62853863862399</v>
+        <v>7.387016777712</v>
       </c>
       <c r="S8">
-        <v>0.003823960557572478</v>
+        <v>0.0009892800431609999</v>
       </c>
       <c r="T8">
-        <v>0.004647533708694478</v>
+        <v>0.0008343798870063892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>0.007214306056888888</v>
+        <v>12.115999013664</v>
       </c>
       <c r="R9">
-        <v>0.06492875451199999</v>
+        <v>109.043991122976</v>
       </c>
       <c r="S9">
-        <v>5.964297677166814E-06</v>
+        <v>0.009735553380634379</v>
       </c>
       <c r="T9">
-        <v>7.248839020692635E-06</v>
+        <v>0.01231676003044021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,104 +1057,104 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>2.889702211534</v>
+        <v>5.829316704588</v>
       </c>
       <c r="R10">
-        <v>17.338213269204</v>
+        <v>34.975900227528</v>
       </c>
       <c r="S10">
-        <v>0.002389009289604289</v>
+        <v>0.004684023487137764</v>
       </c>
       <c r="T10">
-        <v>0.001935689631497066</v>
+        <v>0.003950605306304793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>4.505141</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>9.010282</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.772676333333333</v>
+        <v>4.020434</v>
       </c>
       <c r="N11">
-        <v>5.318029</v>
+        <v>8.040868</v>
       </c>
       <c r="O11">
-        <v>0.02641166782452989</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P11">
-        <v>0.03027903878070085</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q11">
-        <v>0.2072353176404444</v>
+        <v>18.112622051194</v>
       </c>
       <c r="R11">
-        <v>1.865117858764</v>
+        <v>72.45048820477599</v>
       </c>
       <c r="S11">
-        <v>0.0001713280686850774</v>
+        <v>0.01455401231411364</v>
       </c>
       <c r="T11">
-        <v>0.0002082272979732031</v>
+        <v>0.008183442921674592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H12">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I12">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J12">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9991829999999999</v>
+        <v>39.565288</v>
       </c>
       <c r="N12">
-        <v>1.998366</v>
+        <v>118.695864</v>
       </c>
       <c r="O12">
-        <v>0.01488714493203248</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P12">
-        <v>0.01137801272088475</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q12">
-        <v>3.0645207393495</v>
+        <v>178.247201145608</v>
       </c>
       <c r="R12">
-        <v>12.258082957398</v>
+        <v>1069.483206873648</v>
       </c>
       <c r="S12">
-        <v>0.002533537360794181</v>
+        <v>0.1432267483469328</v>
       </c>
       <c r="T12">
-        <v>0.001368528793264495</v>
+        <v>0.120800494185808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,264 +1225,264 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H13">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I13">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J13">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.565288</v>
+        <v>19.035871</v>
       </c>
       <c r="N13">
-        <v>118.695864</v>
+        <v>38.071742</v>
       </c>
       <c r="O13">
-        <v>0.5894957947979553</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P13">
-        <v>0.6758136650185235</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q13">
-        <v>121.347786776132</v>
+        <v>85.759282912811</v>
       </c>
       <c r="R13">
-        <v>728.086720656792</v>
+        <v>343.037131651244</v>
       </c>
       <c r="S13">
-        <v>0.1003220984930505</v>
+        <v>0.06891004825446176</v>
       </c>
       <c r="T13">
-        <v>0.08128576423208091</v>
+        <v>0.03874680290557204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06171066666666666</v>
+        <v>4.020434</v>
       </c>
       <c r="N14">
-        <v>0.185132</v>
+        <v>8.040868</v>
       </c>
       <c r="O14">
-        <v>0.0009194468265763251</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P14">
-        <v>0.001054078307498645</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q14">
-        <v>0.1892682499993333</v>
+        <v>0.5250673402553333</v>
       </c>
       <c r="R14">
-        <v>1.135609499996</v>
+        <v>3.150404041532</v>
       </c>
       <c r="S14">
-        <v>0.0001564741189146694</v>
+        <v>0.0004219066965686096</v>
       </c>
       <c r="T14">
-        <v>0.0001267828178394961</v>
+        <v>0.0003558451059877131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.7183095</v>
+        <v>39.565288</v>
       </c>
       <c r="N15">
-        <v>49.436619</v>
+        <v>118.695864</v>
       </c>
       <c r="O15">
-        <v>0.3682859456189059</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P15">
-        <v>0.2814752051723923</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q15">
-        <v>75.81171027170174</v>
+        <v>5.167213424370667</v>
       </c>
       <c r="R15">
-        <v>303.246841086807</v>
+        <v>46.504920819336</v>
       </c>
       <c r="S15">
-        <v>0.06267596687886376</v>
+        <v>0.004152004474856609</v>
       </c>
       <c r="T15">
-        <v>0.03385537811549366</v>
+        <v>0.00525283368728142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.391799</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.772676333333333</v>
+        <v>19.035871</v>
       </c>
       <c r="N16">
-        <v>5.318029</v>
+        <v>38.071742</v>
       </c>
       <c r="O16">
-        <v>0.02641166782452989</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P16">
-        <v>0.03027903878070085</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q16">
-        <v>5.436845290256167</v>
+        <v>2.486078407309667</v>
       </c>
       <c r="R16">
-        <v>32.621071741537</v>
+        <v>14.916470443858</v>
       </c>
       <c r="S16">
-        <v>0.00449481398211903</v>
+        <v>0.001997635441824489</v>
       </c>
       <c r="T16">
-        <v>0.003641913348163244</v>
+        <v>0.001684848335668098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H17">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I17">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J17">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,60 +1491,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N17">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O17">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P17">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q17">
-        <v>0.8604231261799999</v>
+        <v>0.4624021756419999</v>
       </c>
       <c r="R17">
-        <v>5.16253875708</v>
+        <v>2.774413053852</v>
       </c>
       <c r="S17">
-        <v>0.0007113393322086253</v>
+        <v>0.0003715534360152438</v>
       </c>
       <c r="T17">
-        <v>0.0005763611618523072</v>
+        <v>0.0003133760921413647</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H18">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I18">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J18">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,518 +1559,84 @@
         <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P18">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q18">
-        <v>34.07072457114667</v>
+        <v>4.550522468744</v>
       </c>
       <c r="R18">
-        <v>306.63652114032</v>
+        <v>40.954702218696</v>
       </c>
       <c r="S18">
-        <v>0.02816735827627365</v>
+        <v>0.003656475570381878</v>
       </c>
       <c r="T18">
-        <v>0.03423381206550925</v>
+        <v>0.00462592421784102</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H19">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I19">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J19">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N19">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O19">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P19">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q19">
-        <v>0.05314070068444444</v>
+        <v>2.189372631323</v>
       </c>
       <c r="R19">
-        <v>0.47826630616</v>
+        <v>13.136235787938</v>
       </c>
       <c r="S19">
-        <v>4.393311777403713E-05</v>
+        <v>0.001759223824490822</v>
       </c>
       <c r="T19">
-        <v>5.339507108109393E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.58338</v>
-      </c>
-      <c r="I20">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J20">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.7183095</v>
-      </c>
-      <c r="N20">
-        <v>49.436619</v>
-      </c>
-      <c r="O20">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P20">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q20">
-        <v>21.28559546537</v>
-      </c>
-      <c r="R20">
-        <v>127.71357279222</v>
-      </c>
-      <c r="S20">
-        <v>0.01759748291659898</v>
-      </c>
-      <c r="T20">
-        <v>0.0142583226320353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.8611266666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.58338</v>
-      </c>
-      <c r="I21">
-        <v>0.04778211910048955</v>
-      </c>
-      <c r="J21">
-        <v>0.05065569673642353</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.318029</v>
-      </c>
-      <c r="O21">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P21">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q21">
-        <v>1.526498862002222</v>
-      </c>
-      <c r="R21">
-        <v>13.73848975802</v>
-      </c>
-      <c r="S21">
-        <v>0.001262005457634255</v>
-      </c>
-      <c r="T21">
-        <v>0.00153380580594559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.671026</v>
-      </c>
-      <c r="I22">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J22">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.998366</v>
-      </c>
-      <c r="O22">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P22">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q22">
-        <v>0.5565535905859998</v>
-      </c>
-      <c r="R22">
-        <v>3.339321543516</v>
-      </c>
-      <c r="S22">
-        <v>0.0004601206632176645</v>
-      </c>
-      <c r="T22">
-        <v>0.0003728117763725869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.671026</v>
-      </c>
-      <c r="I23">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J23">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.565288</v>
-      </c>
-      <c r="N23">
-        <v>118.695864</v>
-      </c>
-      <c r="O23">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P23">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q23">
-        <v>22.03820831516267</v>
-      </c>
-      <c r="R23">
-        <v>198.343874836464</v>
-      </c>
-      <c r="S23">
-        <v>0.01821969204335733</v>
-      </c>
-      <c r="T23">
-        <v>0.0221436993553328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.671026</v>
-      </c>
-      <c r="I24">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J24">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.185132</v>
-      </c>
-      <c r="O24">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P24">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q24">
-        <v>0.0343733761591111</v>
-      </c>
-      <c r="R24">
-        <v>0.309360385432</v>
-      </c>
-      <c r="S24">
-        <v>2.841757002898457E-05</v>
-      </c>
-      <c r="T24">
-        <v>3.4537912366108E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.671026</v>
-      </c>
-      <c r="I25">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J25">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.7183095</v>
-      </c>
-      <c r="N25">
-        <v>49.436619</v>
-      </c>
-      <c r="O25">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P25">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q25">
-        <v>13.768312616849</v>
-      </c>
-      <c r="R25">
-        <v>82.609875701094</v>
-      </c>
-      <c r="S25">
-        <v>0.01138270463044257</v>
-      </c>
-      <c r="T25">
-        <v>0.009222811910953642</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.671026</v>
-      </c>
-      <c r="I26">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J26">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N26">
-        <v>5.318029</v>
-      </c>
-      <c r="O26">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P26">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q26">
-        <v>0.9873960808615554</v>
-      </c>
-      <c r="R26">
-        <v>8.886564727753999</v>
-      </c>
-      <c r="S26">
-        <v>0.0008163119370161332</v>
-      </c>
-      <c r="T26">
-        <v>0.0009921224832142523</v>
+        <v>0.001483766892949152</v>
       </c>
     </row>
   </sheetData>
